--- a/manual_cuts/manual.xlsx
+++ b/manual_cuts/manual.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEE4C33-4883-46D0-8ED3-C65E7AF77F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58EF8D99-8AAD-44B2-8FA6-636142C879C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>date_curr</t>
   </si>
@@ -51,32 +45,26 @@
     <t>Manual Cuts</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
     <t>9962</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>9963</t>
-  </si>
-  <si>
-    <t>9964</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>9965</t>
+  </si>
+  <si>
+    <t>9966</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,12 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,7 +113,7 @@
   <dxfs count="2">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -143,14 +132,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9300E27-B445-4E39-A5A7-3B0381FEBE28}" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
-  <autoFilter ref="A1:E6" xr:uid="{B9300E27-B445-4E39-A5A7-3B0381FEBE28}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F3D22093-408D-480A-BCC1-146AA0500F90}" name="date_curr" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{74CC67C5-83AC-4880-95BD-E2F450FD8B32}" name="PROD_ID" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{3773B21C-D9FB-4257-B2D4-09EC539B0E58}" name="PLY/BRAKER NO"/>
-    <tableColumn id="5" xr3:uid="{3D0F6D5C-B0DB-4B00-B11E-8ADDD016DF2C}" name="Shift"/>
-    <tableColumn id="4" xr3:uid="{CA795831-B0AB-47D8-BA64-62412C650B35}" name="Manual Cuts"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F4" totalsRowShown="0">
+  <autoFilter ref="A1:F4">
+    <filterColumn colId="5"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" name="date_curr" dataDxfId="1"/>
+    <tableColumn id="2" name="PROD_ID" dataDxfId="0"/>
+    <tableColumn id="3" name="PLY/BRAKER NO"/>
+    <tableColumn id="5" name="Shift"/>
+    <tableColumn id="4" name="Manual Cuts"/>
+    <tableColumn id="6" name="Length"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -199,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -251,7 +243,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -445,30 +437,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D5930D-2E97-4DBA-B793-AFB0C7FF9C19}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -480,97 +475,76 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>45510</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>45511</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>45512</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
       <c r="E4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45513</v>
-      </c>
-      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45545</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>-8</v>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>